--- a/results/results_9_include_true_dates.xlsx
+++ b/results/results_9_include_true_dates.xlsx
@@ -1,26 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACD2CC4-F336-42DF-9F9C-3942CA3A5A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="19200" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="m4_quarterly_dates" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
+  <si>
+    <t>m4_quarterly_dates</t>
+  </si>
+  <si>
+    <t>DeepAR</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>1h57min/3</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>OWA</t>
+  </si>
+  <si>
+    <t>MASE</t>
+  </si>
+  <si>
+    <t>sMAPE</t>
+  </si>
+  <si>
+    <t>MSIS</t>
+  </si>
+  <si>
+    <t>wQL[0.5]</t>
+  </si>
+  <si>
+    <t>wQL[0.9]</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epochs </t>
+  </si>
+  <si>
+    <t>num batches</t>
+  </si>
+  <si>
+    <t>use feat</t>
+  </si>
+  <si>
+    <t>passes</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Notes 2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +109,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +158,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +455,621 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.54296875" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="4" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>24000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D14" si="0">((E5/$E$11)+(F5/$F$11))/2</f>
+        <v>0.9714034995438261</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.2576719999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.106083</v>
+      </c>
+      <c r="G5" s="1">
+        <v>14.099461</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9.8796999999999996E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5.8257000000000003E-2</v>
+      </c>
+      <c r="J5">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5" s="2">
+        <v>100</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" ref="N5:N14" si="1">(32*L5*K5)/B5</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>24000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96952276547092953</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.254988</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.10589800000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>13.689927000000001</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9.8133999999999999E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5.7279999999999998E-2</v>
+      </c>
+      <c r="J6">
+        <v>43</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6" s="2">
+        <v>100</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>24000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0640129265219105</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.446115</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.110585</v>
+      </c>
+      <c r="G7" s="1">
+        <v>15.797732999999999</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.102634</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5.8513999999999997E-2</v>
+      </c>
+      <c r="J7">
+        <v>44</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7" s="2">
+        <v>100</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>24000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98161164120407696</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.2768710000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.106708</v>
+      </c>
+      <c r="G8" s="1">
+        <v>13.505087</v>
+      </c>
+      <c r="H8" s="1">
+        <v>9.9612999999999993E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6.0116999999999997E-2</v>
+      </c>
+      <c r="J8">
+        <v>45</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8" s="2">
+        <v>100</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>24000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98744937447321157</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.289822</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.106904</v>
+      </c>
+      <c r="G9" s="1">
+        <v>15.762036</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.101816</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6.0907000000000003E-2</v>
+      </c>
+      <c r="J9">
+        <v>46</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9" s="2">
+        <v>100</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>24000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2572834557698545</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.813617</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.12209</v>
+      </c>
+      <c r="G10" s="1">
+        <v>26.371949000000001</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.116309</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5.9586E-2</v>
+      </c>
+      <c r="J10">
+        <v>47</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10" s="2">
+        <v>100</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>24000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.3142990000000001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.107601</v>
+      </c>
+      <c r="G11" s="1">
+        <v>14.453936000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>9.9878999999999996E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5.7447999999999999E-2</v>
+      </c>
+      <c r="J11">
+        <v>48</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11" s="2">
+        <v>100</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>24000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97429187868932365</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.260745</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.10645300000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>13.352857999999999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>9.9006999999999998E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5.9950000000000003E-2</v>
+      </c>
+      <c r="J12">
+        <v>49</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12" s="2">
+        <v>100</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>24000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96742015119976343</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.252588</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.105642</v>
+      </c>
+      <c r="G13" s="1">
+        <v>14.954591000000001</v>
+      </c>
+      <c r="H13" s="1">
+        <v>9.9402000000000004E-2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5.7578999999999998E-2</v>
+      </c>
+      <c r="J13">
+        <v>50</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13" s="2">
+        <v>100</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>24000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0091914280504737</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.3227150000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.10889</v>
+      </c>
+      <c r="G14" s="1">
+        <v>15.889268</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.103681</v>
+      </c>
+      <c r="I14" s="1">
+        <v>6.1481000000000001E-2</v>
+      </c>
+      <c r="J14">
+        <v>51</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14" s="2">
+        <v>100</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D15" s="5">
+        <f>AVERAGE(D5:D14)</f>
+        <v>1.0182187120923369</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" ref="E15:F15" si="2">AVERAGE(E5:E14)</f>
+        <v>1.3489432000000001</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="2"/>
+        <v>0.10868540000000002</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D16" s="5">
+        <f>MEDIAN(D5:D14)</f>
+        <v>0.98453050783864426</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" ref="E16:F16" si="3">MEDIAN(E5:E14)</f>
+        <v>1.2833464999999999</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="3"/>
+        <v>0.106806</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:P4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>